--- a/viralint/cpu_each_user_viralint.xlsx
+++ b/viralint/cpu_each_user_viralint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>date_cpu</t>
   </si>
@@ -296,6 +296,174 @@
   </si>
   <si>
     <t>Sep_6_6</t>
+  </si>
+  <si>
+    <t>Sep_6_12</t>
+  </si>
+  <si>
+    <t>Sep_6_18</t>
+  </si>
+  <si>
+    <t>Sep_7_0</t>
+  </si>
+  <si>
+    <t>Sep_7_6</t>
+  </si>
+  <si>
+    <t>Sep_7_12</t>
+  </si>
+  <si>
+    <t>Sep_7_18</t>
+  </si>
+  <si>
+    <t>Sep_8_0</t>
+  </si>
+  <si>
+    <t>Sep_8_6</t>
+  </si>
+  <si>
+    <t>Sep_8_12</t>
+  </si>
+  <si>
+    <t>Sep_8_18</t>
+  </si>
+  <si>
+    <t>Sep_9_0</t>
+  </si>
+  <si>
+    <t>Sep_9_6</t>
+  </si>
+  <si>
+    <t>Sep_9_12</t>
+  </si>
+  <si>
+    <t>Sep_9_18</t>
+  </si>
+  <si>
+    <t>Sep_10_0</t>
+  </si>
+  <si>
+    <t>Sep_10_6</t>
+  </si>
+  <si>
+    <t>Sep_10_12</t>
+  </si>
+  <si>
+    <t>Sep_10_18</t>
+  </si>
+  <si>
+    <t>Sep_11_0</t>
+  </si>
+  <si>
+    <t>Sep_11_6</t>
+  </si>
+  <si>
+    <t>Sep_11_12</t>
+  </si>
+  <si>
+    <t>Sep_11_18</t>
+  </si>
+  <si>
+    <t>Sep_12_0</t>
+  </si>
+  <si>
+    <t>Sep_12_6</t>
+  </si>
+  <si>
+    <t>Sep_12_12</t>
+  </si>
+  <si>
+    <t>Sep_12_18</t>
+  </si>
+  <si>
+    <t>Sep_13_0</t>
+  </si>
+  <si>
+    <t>Sep_13_6</t>
+  </si>
+  <si>
+    <t>Sep_13_12</t>
+  </si>
+  <si>
+    <t>Sep_13_18</t>
+  </si>
+  <si>
+    <t>Sep_14_0</t>
+  </si>
+  <si>
+    <t>Sep_14_6</t>
+  </si>
+  <si>
+    <t>Sep_14_12</t>
+  </si>
+  <si>
+    <t>Sep_14_18</t>
+  </si>
+  <si>
+    <t>Sep_15_0</t>
+  </si>
+  <si>
+    <t>Sep_15_6</t>
+  </si>
+  <si>
+    <t>Sep_15_12</t>
+  </si>
+  <si>
+    <t>Sep_15_18</t>
+  </si>
+  <si>
+    <t>Sep_16_0</t>
+  </si>
+  <si>
+    <t>Sep_16_6</t>
+  </si>
+  <si>
+    <t>Sep_16_12</t>
+  </si>
+  <si>
+    <t>Sep_16_18</t>
+  </si>
+  <si>
+    <t>Sep_17_0</t>
+  </si>
+  <si>
+    <t>Sep_17_6</t>
+  </si>
+  <si>
+    <t>Sep_17_12</t>
+  </si>
+  <si>
+    <t>Sep_17_18</t>
+  </si>
+  <si>
+    <t>Sep_18_0</t>
+  </si>
+  <si>
+    <t>Sep_18_6</t>
+  </si>
+  <si>
+    <t>Sep_18_12</t>
+  </si>
+  <si>
+    <t>Sep_18_18</t>
+  </si>
+  <si>
+    <t>Sep_19_0</t>
+  </si>
+  <si>
+    <t>Sep_19_6</t>
+  </si>
+  <si>
+    <t>Sep_19_12</t>
+  </si>
+  <si>
+    <t>Sep_19_18</t>
+  </si>
+  <si>
+    <t>Sep_20_0</t>
+  </si>
+  <si>
+    <t>Sep_20_6</t>
   </si>
 </sst>
 </file>
@@ -627,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4945,6 +5113,3142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78">
+        <v>3.9</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>3.4</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>33.1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3.4</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>34.6</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>3.4</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>36.2</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81">
+        <v>2.4</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>3.4</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>37.8</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>3.4</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>39.1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>3.4</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>40.7</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>3.4</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>42.3</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85">
+        <v>5.2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3.4</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>43.9</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>64.8</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>43.2</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87">
+        <v>3.2</v>
+      </c>
+      <c r="C87">
+        <v>64.7</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>44.6</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88">
+        <v>3.3</v>
+      </c>
+      <c r="C88">
+        <v>64.7</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>45.2</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89">
+        <v>3.5</v>
+      </c>
+      <c r="C89">
+        <v>64.7</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>46.6</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>5.4</v>
+      </c>
+      <c r="C90">
+        <v>61.2</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>47.7</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91">
+        <v>5.8</v>
+      </c>
+      <c r="C91">
+        <v>61.4</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>48.7</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>50.2</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93">
+        <v>8.6</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>51.9</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>55.8</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95">
+        <v>9.4</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>57.5</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96">
+        <v>9.6</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>59.2</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97">
+        <v>12.4</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>60.7</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98">
+        <v>12.6</v>
+      </c>
+      <c r="C98">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>61.6</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99">
+        <v>12.5</v>
+      </c>
+      <c r="C99">
+        <v>67.5</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>7.7</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100">
+        <v>12.8</v>
+      </c>
+      <c r="C100">
+        <v>67.5</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>7.7</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>67.5</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>7.1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>35.2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>4.3</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103">
+        <v>12.2</v>
+      </c>
+      <c r="C103">
+        <v>35.2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>10.3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>4.3</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104">
+        <v>12.3</v>
+      </c>
+      <c r="C104">
+        <v>28.7</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>11.1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105">
+        <v>12.5</v>
+      </c>
+      <c r="C105">
+        <v>28.9</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>10.8</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>4.5</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106">
+        <v>12.6</v>
+      </c>
+      <c r="C106">
+        <v>28.7</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>10.4</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>15.8</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107">
+        <v>12.7</v>
+      </c>
+      <c r="C107">
+        <v>28.7</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0.1</v>
+      </c>
+      <c r="I107">
+        <v>10.8</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>15.8</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108">
+        <v>12.9</v>
+      </c>
+      <c r="C108">
+        <v>28.7</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>11.2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>15.9</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109">
+        <v>3.9</v>
+      </c>
+      <c r="C109">
+        <v>28.9</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>11.5</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>4.1</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110">
+        <v>2.4</v>
+      </c>
+      <c r="C110">
+        <v>28.7</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>11.9</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>7.6</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111">
+        <v>2.6</v>
+      </c>
+      <c r="C111">
+        <v>16.3</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>10.8</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>7.9</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>7.2</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112">
+        <v>2.9</v>
+      </c>
+      <c r="C112">
+        <v>16.9</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>12.5</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>8.1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>7.2</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113">
+        <v>2.5</v>
+      </c>
+      <c r="C113">
+        <v>17.1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>8.1</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114">
+        <v>2.7</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>6.4</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>17.1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>6.4</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116">
+        <v>3.2</v>
+      </c>
+      <c r="C116">
+        <v>17.1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>6.4</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117">
+        <v>8.1</v>
+      </c>
+      <c r="C117">
+        <v>17.2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>3.6</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>6.6</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118">
+        <v>14.2</v>
+      </c>
+      <c r="C118">
+        <v>17.4</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0.9</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>6.8</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119">
+        <v>15.3</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>6.4</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120">
+        <v>16.2</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0.1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>6.4</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0.1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>9.1</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122">
+        <v>13.8</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0.1</v>
+      </c>
+      <c r="I122">
+        <v>8.9</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123">
+        <v>10.8</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0.1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>6.8</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124">
+        <v>11.1</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0.1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>6.8</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125">
+        <v>17.6</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.1</v>
+      </c>
+      <c r="I125">
+        <v>0.5</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>6.8</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126">
+        <v>3.5</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0.2</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.1</v>
+      </c>
+      <c r="I126">
+        <v>0.3</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>7.2</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127">
+        <v>3.5</v>
+      </c>
+      <c r="C127">
+        <v>31.5</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0.1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>6.9</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128">
+        <v>3.5</v>
+      </c>
+      <c r="C128">
+        <v>31.5</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0.1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>7.2</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129">
+        <v>3.5</v>
+      </c>
+      <c r="C129">
+        <v>31.5</v>
+      </c>
+      <c r="D129">
+        <v>0.2</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0.1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>7.2</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130">
+        <v>3.5</v>
+      </c>
+      <c r="C130">
+        <v>31.5</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>7.2</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>3.5</v>
+      </c>
+      <c r="C131">
+        <v>31.5</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>7.2</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132">
+        <v>3.5</v>
+      </c>
+      <c r="C132">
+        <v>31.5</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>7.2</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133">
+        <v>3.5</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>7.2</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
